--- a/data/GSMM_parameters/EnzActivity.xlsx
+++ b/data/GSMM_parameters/EnzActivity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\lab_project\EPS\LbPtEPS\data\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\EPS\LbPtEPS\data\GSMM_parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6471FFC-A5D9-429D-BCE3-186567008EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC9F298-02CF-43D8-92C9-8D3E1B7EA7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
   <si>
     <t>EC</t>
   </si>
@@ -42,30 +42,9 @@
     <t>Reaction</t>
   </si>
   <si>
-    <t>GALKr</t>
-  </si>
-  <si>
-    <t>GALT</t>
-  </si>
-  <si>
-    <t>UGLT</t>
-  </si>
-  <si>
-    <t>UDPG4E</t>
-  </si>
-  <si>
-    <t>GALUi</t>
-  </si>
-  <si>
     <t>PGMT</t>
   </si>
   <si>
-    <t>G1PP</t>
-  </si>
-  <si>
-    <t>HEX1</t>
-  </si>
-  <si>
     <t>PGI</t>
   </si>
   <si>
@@ -75,12 +54,6 @@
     <t>FBA</t>
   </si>
   <si>
-    <t>FBP</t>
-  </si>
-  <si>
-    <t>TPI</t>
-  </si>
-  <si>
     <t>GAPD</t>
   </si>
   <si>
@@ -96,30 +69,12 @@
     <t>PYK</t>
   </si>
   <si>
-    <t>G1PACT</t>
-  </si>
-  <si>
-    <t>UAGDP</t>
-  </si>
-  <si>
     <t>ACCOAC</t>
   </si>
   <si>
     <t>LDH_L</t>
   </si>
   <si>
-    <t>ACLS</t>
-  </si>
-  <si>
-    <t>KARA1</t>
-  </si>
-  <si>
-    <t>DHAD1</t>
-  </si>
-  <si>
-    <t>ACLDC</t>
-  </si>
-  <si>
     <t>PFL</t>
   </si>
   <si>
@@ -132,38 +87,203 @@
     <t>ACKr</t>
   </si>
   <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>ACONT</t>
-  </si>
-  <si>
-    <t>ACALD</t>
-  </si>
-  <si>
-    <t>LACZ</t>
-  </si>
-  <si>
     <t>Activity(mmol/(mg E·h))</t>
   </si>
   <si>
-    <t>Ref</t>
-  </si>
-  <si>
-    <t>L. plantarum</t>
-  </si>
-  <si>
     <t>1.1.1.27</t>
+  </si>
+  <si>
+    <t>LDH_D</t>
+  </si>
+  <si>
+    <t>EX_ac_e</t>
+  </si>
+  <si>
+    <t>EX_lac_L_e</t>
+  </si>
+  <si>
+    <t>GLCpts</t>
+  </si>
+  <si>
+    <t>EX_lac_D_e</t>
+  </si>
+  <si>
+    <t>GALU</t>
+  </si>
+  <si>
+    <t>2.7.1.199</t>
+  </si>
+  <si>
+    <t>Organism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Staphylococcus carnosus</t>
+  </si>
+  <si>
+    <t>PMID: 10537210</t>
+  </si>
+  <si>
+    <t>Saccharomyces cerevisiae</t>
+  </si>
+  <si>
+    <t>5.3.1.9</t>
+  </si>
+  <si>
+    <t>E. coli</t>
+  </si>
+  <si>
+    <t>2.7.1.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.2.13	</t>
+  </si>
+  <si>
+    <t>1.2.1.12</t>
+  </si>
+  <si>
+    <t>2.7.2.3</t>
+  </si>
+  <si>
+    <t>5.4.2.11</t>
+  </si>
+  <si>
+    <t>4.2.1.11</t>
+  </si>
+  <si>
+    <t>2.7.1.40</t>
+  </si>
+  <si>
+    <t>Lactiplantibacillus plantarum</t>
+  </si>
+  <si>
+    <t>1.1.1.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Lactobacillus delbrueckii subsp. Bulgaricus</t>
+  </si>
+  <si>
+    <t>PMID: 1610363</t>
+  </si>
+  <si>
+    <t>2.3.1.54</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/0003-9861(84)90054-7</t>
+  </si>
+  <si>
+    <t>1.2.7.1</t>
+  </si>
+  <si>
+    <t>C. acetobutylicum</t>
+  </si>
+  <si>
+    <t>2.3.1.8</t>
+  </si>
+  <si>
+    <t>C. kluyveri</t>
+  </si>
+  <si>
+    <t>2.7.2.1</t>
+  </si>
+  <si>
+    <t>6.4.1.2</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/0076-6879(81)71006-1</t>
+  </si>
+  <si>
+    <t>5.4.2.2</t>
+  </si>
+  <si>
+    <t>Bacillus subtilis</t>
+  </si>
+  <si>
+    <t>UDPG4E_rev</t>
+  </si>
+  <si>
+    <t>UDPG4E_for</t>
+  </si>
+  <si>
+    <t>5.1.3.2</t>
+  </si>
+  <si>
+    <t>2.7.7.9</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>5.3.1.8</t>
+  </si>
+  <si>
+    <t>MAN6PI_for</t>
+  </si>
+  <si>
+    <t>PMANM_for</t>
+  </si>
+  <si>
+    <t>5.4.2.8</t>
+  </si>
+  <si>
+    <t>G6PDH2r</t>
+  </si>
+  <si>
+    <t>1.1.1.49</t>
+  </si>
+  <si>
+    <t>3.1.1.31</t>
+  </si>
+  <si>
+    <t>PGL</t>
+  </si>
+  <si>
+    <t>Enterococcus faecalis</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>1.1.1.44</t>
+  </si>
+  <si>
+    <t>RPE</t>
+  </si>
+  <si>
+    <t>Streptococcus pyogenes</t>
+  </si>
+  <si>
+    <t>5.1.3.1</t>
+  </si>
+  <si>
+    <t>PMID: 16489742</t>
+  </si>
+  <si>
+    <t>5.3.1.6</t>
+  </si>
+  <si>
+    <t>RPI_for</t>
+  </si>
+  <si>
+    <t>PMID: 12517338</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -189,8 +309,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,18 +592,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" customWidth="1"/>
+    <col min="3" max="4" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -490,202 +612,456 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2">
+        <v>6.36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3">
+        <v>6.36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4">
+        <v>6.36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>0.36113999999999996</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6">
+        <v>6.24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7">
+        <v>31.2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8">
+        <v>1.92</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9">
+        <v>133.88620527508229</v>
+      </c>
+      <c r="D9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10">
+        <v>316.63595242084102</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>12.756</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>11.4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13">
+        <v>28.62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>2.4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15">
+        <v>28.8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C16">
+        <v>7.44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="C17">
+        <v>15.6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18">
+        <v>3.3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>141</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20">
+        <v>126</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21">
+        <v>9.6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22">
+        <v>1.5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23">
+        <v>428.4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24">
+        <v>65.22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <v>0.36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25">
-        <v>141</v>
-      </c>
-      <c r="D25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26">
+        <v>1.89</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27">
+        <v>13.997999999999999</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28">
+        <v>1.62</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29">
+        <v>0.28559999999999997</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30">
+        <v>25.2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>34</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/GSMM_parameters/EnzActivity.xlsx
+++ b/data/GSMM_parameters/EnzActivity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\EPS\LbPtEPS\data\GSMM_parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC9F298-02CF-43D8-92C9-8D3E1B7EA7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D971CF3-4EC0-431A-AD11-399E561B1BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="83">
   <si>
     <t>EC</t>
   </si>
@@ -268,6 +268,21 @@
   </si>
   <si>
     <t>PMID: 12517338</t>
+  </si>
+  <si>
+    <t>MANT_EPS</t>
+  </si>
+  <si>
+    <t>GLCT_EPS</t>
+  </si>
+  <si>
+    <t>GALT_EPS</t>
+  </si>
+  <si>
+    <t>WZX</t>
+  </si>
+  <si>
+    <t>7.5.2.6</t>
   </si>
 </sst>
 </file>
@@ -592,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1060,6 +1075,35 @@
         <v>29</v>
       </c>
     </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35">
+        <v>3.7440000000000001E-2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/GSMM_parameters/EnzActivity.xlsx
+++ b/data/GSMM_parameters/EnzActivity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\EPS\LbPtEPS\data\GSMM_parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D971CF3-4EC0-431A-AD11-399E561B1BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72583145-D2CA-4916-9D44-3222D7B3EDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="101">
   <si>
     <t>EC</t>
   </si>
@@ -219,12 +219,6 @@
     <t>5.3.1.8</t>
   </si>
   <si>
-    <t>MAN6PI_for</t>
-  </si>
-  <si>
-    <t>PMANM_for</t>
-  </si>
-  <si>
     <t>5.4.2.8</t>
   </si>
   <si>
@@ -249,9 +243,6 @@
     <t>1.1.1.44</t>
   </si>
   <si>
-    <t>RPE</t>
-  </si>
-  <si>
     <t>Streptococcus pyogenes</t>
   </si>
   <si>
@@ -283,6 +274,69 @@
   </si>
   <si>
     <t>7.5.2.6</t>
+  </si>
+  <si>
+    <t>Activity(mmol/(g E·h))</t>
+  </si>
+  <si>
+    <t>2.4.1.83</t>
+  </si>
+  <si>
+    <t>PMID: 2659345</t>
+  </si>
+  <si>
+    <t>2.4.1.44</t>
+  </si>
+  <si>
+    <t>Salmonella Typhimurium</t>
+  </si>
+  <si>
+    <t>PMID: 4553445</t>
+  </si>
+  <si>
+    <t>MAN6PI</t>
+  </si>
+  <si>
+    <t>PMANM</t>
+  </si>
+  <si>
+    <t>DL</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>MAN1PT</t>
+  </si>
+  <si>
+    <t>2.7.7.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DL, 1_2031 </t>
+  </si>
+  <si>
+    <t>RPI_rev</t>
+  </si>
+  <si>
+    <t>RPE_for</t>
+  </si>
+  <si>
+    <t>RPE_rev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DL, 1_1389 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DL, 1_305 , 1_497 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Arthrobacter sp.</t>
+  </si>
+  <si>
+    <t>PMID: 14245350</t>
+  </si>
+  <si>
+    <t>2.4.1.-</t>
   </si>
 </sst>
 </file>
@@ -607,19 +661,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.26953125" customWidth="1"/>
-    <col min="3" max="4" width="15.1796875" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" customWidth="1"/>
+    <col min="4" max="4" width="26.7265625" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -630,13 +686,16 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -646,11 +705,15 @@
       <c r="C2">
         <v>6.36</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <f>C2*1000</f>
+        <v>6360</v>
+      </c>
+      <c r="E2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -660,11 +723,15 @@
       <c r="C3">
         <v>6.36</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <f t="shared" ref="D3:D38" si="0">C3*1000</f>
+        <v>6360</v>
+      </c>
+      <c r="E3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -674,11 +741,15 @@
       <c r="C4">
         <v>6.36</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>6360</v>
+      </c>
+      <c r="E4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -688,420 +759,636 @@
       <c r="C5">
         <v>0.36113999999999996</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>361.14</v>
+      </c>
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C6">
         <v>6.24</v>
       </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>6240</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7">
         <v>31.2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>31200</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" t="s">
-        <v>70</v>
       </c>
       <c r="C8">
         <v>1.92</v>
       </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1920</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C9">
         <v>133.88620527508229</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>133886.20527508229</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" t="s">
         <v>72</v>
       </c>
-      <c r="E9" t="s">
+      <c r="C11">
+        <v>316.63595242084102</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>316635.95242084103</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>12.756</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>12756</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>11.4</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>11400</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>28.62</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>28620</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>2.4</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <v>28.8</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>28800</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>7.44</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>7440</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19">
+        <v>15.6</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>15600</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20">
+        <v>3.3</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>3300</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>141</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>141000</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22">
+        <v>126</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>126000</v>
+      </c>
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23">
+        <v>9.6</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>9600</v>
+      </c>
+      <c r="E23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24">
+        <v>1.5</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="E24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25">
+        <v>428.4</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>428400</v>
+      </c>
+      <c r="E25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26">
+        <v>65.22</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>65220</v>
+      </c>
+      <c r="E26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27">
+        <v>0.36</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28">
+        <v>1.89</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>1890</v>
+      </c>
+      <c r="E28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29">
+        <v>13.997999999999999</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>13998</v>
+      </c>
+      <c r="E29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30">
+        <v>1.62</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>1620</v>
+      </c>
+      <c r="E30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31">
+        <v>0.28559999999999997</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>285.59999999999997</v>
+      </c>
+      <c r="E31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="E34" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>28.5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>76</v>
       </c>
-      <c r="B10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10">
-        <v>316.63595242084102</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="B36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11">
-        <v>12.756</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12">
-        <v>11.4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13">
-        <v>28.62</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14">
-        <v>2.4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15">
-        <v>28.8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16">
-        <v>7.44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17">
-        <v>15.6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18">
-        <v>3.3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19">
-        <v>141</v>
-      </c>
-      <c r="D19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20">
-        <v>126</v>
-      </c>
-      <c r="D20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21">
-        <v>9.6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22">
-        <v>1.5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23">
-        <v>428.4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24">
-        <v>65.22</v>
-      </c>
-      <c r="D24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25">
-        <v>0.36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26">
-        <v>1.89</v>
-      </c>
-      <c r="D26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27">
-        <v>13.997999999999999</v>
-      </c>
-      <c r="D27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28">
-        <v>1.62</v>
-      </c>
-      <c r="D28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29">
-        <v>0.28559999999999997</v>
-      </c>
-      <c r="D29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30">
-        <v>25.2</v>
-      </c>
-      <c r="D30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="D31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37">
+        <v>1.7039999999999999E-4</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>0.1704</v>
+      </c>
+      <c r="E37" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="B38" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35">
+      <c r="C38">
         <v>3.7440000000000001E-2</v>
       </c>
-      <c r="D35" t="s">
-        <v>31</v>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>37.44</v>
+      </c>
+      <c r="E38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39">
+        <v>0.10740000000000001</v>
+      </c>
+      <c r="D39">
+        <v>107.4</v>
+      </c>
+      <c r="E39" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/data/GSMM_parameters/EnzActivity.xlsx
+++ b/data/GSMM_parameters/EnzActivity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\EPS\LbPtEPS\data\GSMM_parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72583145-D2CA-4916-9D44-3222D7B3EDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6195F59A-FC4B-4DB4-B192-53DB447076B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="102">
   <si>
     <t>EC</t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>2.4.1.-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DL, 1_586, 1_634 </t>
   </si>
 </sst>
 </file>
@@ -661,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -724,7 +727,7 @@
         <v>6.36</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D38" si="0">C3*1000</f>
+        <f t="shared" ref="D3:D40" si="0">C3*1000</f>
         <v>6360</v>
       </c>
       <c r="E3" t="s">
@@ -852,9 +855,12 @@
       <c r="B10" t="s">
         <v>70</v>
       </c>
+      <c r="C10">
+        <v>0.133939</v>
+      </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>133.93899999999999</v>
       </c>
       <c r="F10" t="s">
         <v>96</v>
@@ -888,9 +894,12 @@
       <c r="B12" t="s">
         <v>72</v>
       </c>
+      <c r="C12">
+        <v>4.7930539999999997</v>
+      </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4793.0540000000001</v>
       </c>
       <c r="F12" t="s">
         <v>97</v>
@@ -1255,9 +1264,12 @@
       <c r="B32" t="s">
         <v>60</v>
       </c>
+      <c r="C32">
+        <v>12.747788</v>
+      </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12747.788</v>
       </c>
       <c r="F32" t="s">
         <v>92</v>
@@ -1270,12 +1282,15 @@
       <c r="B33" t="s">
         <v>61</v>
       </c>
+      <c r="C33">
+        <v>8.2998000000000002E-2</v>
+      </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82.998000000000005</v>
       </c>
       <c r="F33" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -1322,14 +1337,17 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
         <v>100</v>
       </c>
+      <c r="C36">
+        <v>1.29963887574655</v>
+      </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1299.63887574655</v>
       </c>
       <c r="F36" t="s">
         <v>88</v>
@@ -1337,57 +1355,93 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C37">
-        <v>1.7039999999999999E-4</v>
+        <v>1.1216623825577801</v>
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>0.1704</v>
-      </c>
-      <c r="E37" t="s">
-        <v>84</v>
+        <v>1121.6623825577801</v>
       </c>
       <c r="F37" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C38">
-        <v>3.7440000000000001E-2</v>
+        <v>1.7039999999999999E-4</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>37.44</v>
+        <v>0.1704</v>
       </c>
       <c r="E38" t="s">
-        <v>31</v>
+        <v>84</v>
+      </c>
+      <c r="F38" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39">
+        <v>1.1216623825577801</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>1121.6623825577801</v>
+      </c>
+      <c r="F39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40">
+        <v>3.7440000000000001E-2</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>37.44</v>
+      </c>
+      <c r="E40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>89</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
         <v>59</v>
       </c>
-      <c r="C39">
+      <c r="C41">
         <v>0.10740000000000001</v>
       </c>
-      <c r="D39">
+      <c r="D41">
         <v>107.4</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E41" t="s">
         <v>59</v>
       </c>
     </row>

--- a/data/GSMM_parameters/EnzActivity.xlsx
+++ b/data/GSMM_parameters/EnzActivity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\EPS\LbPtEPS\data\GSMM_parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6195F59A-FC4B-4DB4-B192-53DB447076B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF948AD2-0D3F-43AF-AA5B-22BABFD3506C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="122">
   <si>
     <t>EC</t>
   </si>
@@ -45,9 +45,6 @@
     <t>PGMT</t>
   </si>
   <si>
-    <t>PGI</t>
-  </si>
-  <si>
     <t>PFK</t>
   </si>
   <si>
@@ -294,9 +291,6 @@
     <t>PMID: 4553445</t>
   </si>
   <si>
-    <t>MAN6PI</t>
-  </si>
-  <si>
     <t>PMANM</t>
   </si>
   <si>
@@ -340,13 +334,79 @@
   </si>
   <si>
     <t xml:space="preserve">DL, 1_586, 1_634 </t>
+  </si>
+  <si>
+    <t>PGI_for</t>
+  </si>
+  <si>
+    <t>PGI_rev</t>
+  </si>
+  <si>
+    <t>MAN6PI_for</t>
+  </si>
+  <si>
+    <t>MAN6PI_rev</t>
+  </si>
+  <si>
+    <t>HEX1</t>
+  </si>
+  <si>
+    <t>2.7.1.2</t>
+  </si>
+  <si>
+    <t>MANpts</t>
+  </si>
+  <si>
+    <t>LCTSt</t>
+  </si>
+  <si>
+    <t>LACZ</t>
+  </si>
+  <si>
+    <t>GALK2</t>
+  </si>
+  <si>
+    <t>GALT</t>
+  </si>
+  <si>
+    <t>Pyrococcus furiosus</t>
+  </si>
+  <si>
+    <t>PMID: 11533028</t>
+  </si>
+  <si>
+    <t>3.2.1.23</t>
+  </si>
+  <si>
+    <t>S. thermophilus</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/BF00253905</t>
+  </si>
+  <si>
+    <t>2.7.1.6</t>
+  </si>
+  <si>
+    <t>L. lactis</t>
+  </si>
+  <si>
+    <t>doi: 10.1016/j.febslet.2013.07.017</t>
+  </si>
+  <si>
+    <t>2.7.7.10</t>
+  </si>
+  <si>
+    <t>Bifidobacterium bifidum</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/bi051638w</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +416,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -378,14 +446,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -664,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -678,7 +749,7 @@
     <col min="5" max="5" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -686,24 +757,24 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>59</v>
       </c>
       <c r="C2">
         <v>6.36</v>
@@ -713,33 +784,33 @@
         <v>6360</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3">
         <v>6.36</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D40" si="0">C3*1000</f>
+        <f t="shared" ref="D3:D48" si="0">C3*1000</f>
         <v>6360</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4">
         <v>6.36</v>
@@ -749,704 +820,861 @@
         <v>6360</v>
       </c>
       <c r="E4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5">
+        <v>0.54</v>
+      </c>
+      <c r="D5">
+        <f>C5*1000</f>
+        <v>540</v>
+      </c>
+      <c r="E5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6">
+        <v>27.96</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D8" si="1">C6*1000</f>
+        <v>27960</v>
+      </c>
+      <c r="E6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7">
+        <v>0.69</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>690</v>
+      </c>
+      <c r="E7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8">
+        <v>1.02</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>1020</v>
+      </c>
+      <c r="E8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>0.36113999999999996</v>
+      </c>
+      <c r="D9">
+        <f>C9*1000</f>
+        <v>361.14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>0.36113999999999996</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>361.14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11">
+        <v>9.48</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>9480</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12">
+        <v>6.24</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>6240</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13">
+        <v>31.2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>31200</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14">
+        <v>1.92</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1920</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15">
+        <v>133.88620527508229</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>133886.20527508229</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16">
+        <v>0.133939</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>133.93899999999999</v>
+      </c>
+      <c r="F16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17">
+        <v>316.63595242084102</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>316635.95242084103</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18">
+        <v>4.7930539999999997</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>4793.0540000000001</v>
+      </c>
+      <c r="F18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5">
-        <v>0.36113999999999996</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>361.14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6">
-        <v>6.24</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>6240</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C19">
+        <v>12.756</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>12756</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>0.87</v>
+      </c>
+      <c r="D20">
+        <f>C20*1000</f>
+        <v>870</v>
+      </c>
+      <c r="E20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" t="s">
+        <v>112</v>
+      </c>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7">
-        <v>31.2</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>31200</v>
-      </c>
-      <c r="E7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8">
-        <v>1.92</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>1920</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9">
-        <v>133.88620527508229</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>133886.20527508229</v>
-      </c>
-      <c r="E9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10">
-        <v>0.133939</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>133.93899999999999</v>
-      </c>
-      <c r="F10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11">
-        <v>316.63595242084102</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>316635.95242084103</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12">
-        <v>4.7930539999999997</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>4793.0540000000001</v>
-      </c>
-      <c r="F12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C21">
+        <v>11.4</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>11400</v>
+      </c>
+      <c r="E21" t="s">
         <v>30</v>
       </c>
-      <c r="C13">
-        <v>12.756</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>12756</v>
-      </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>4</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B22" t="s">
         <v>32</v>
       </c>
-      <c r="C14">
-        <v>11.4</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>11400</v>
-      </c>
-      <c r="E14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="C22">
+        <v>28.62</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>28620</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B23" t="s">
         <v>33</v>
       </c>
-      <c r="C15">
-        <v>28.62</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>28620</v>
-      </c>
-      <c r="E15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="C23">
+        <v>2.4</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>6</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B24" t="s">
         <v>34</v>
       </c>
-      <c r="C16">
-        <v>2.4</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>2400</v>
-      </c>
-      <c r="E16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="C24">
+        <v>28.8</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>28800</v>
+      </c>
+      <c r="E24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>7</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B25" t="s">
         <v>35</v>
       </c>
-      <c r="C17">
-        <v>28.8</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>28800</v>
-      </c>
-      <c r="E17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="C25">
+        <v>7.44</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>7440</v>
+      </c>
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>8</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B26" t="s">
         <v>36</v>
       </c>
-      <c r="C18">
-        <v>7.44</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>7440</v>
-      </c>
-      <c r="E18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="C26">
+        <v>15.6</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>15600</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>9</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B27" t="s">
         <v>37</v>
       </c>
-      <c r="C19">
-        <v>15.6</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>15600</v>
-      </c>
-      <c r="E19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C27">
+        <v>3.3</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>3300</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28">
+        <v>141</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>141000</v>
+      </c>
+      <c r="E28" t="s">
         <v>38</v>
       </c>
-      <c r="C20">
-        <v>3.3</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>3300</v>
-      </c>
-      <c r="E20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29">
+        <v>126</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>126000</v>
+      </c>
+      <c r="E29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>12</v>
       </c>
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21">
-        <v>141</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>141000</v>
-      </c>
-      <c r="E21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22">
-        <v>126</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>126000</v>
-      </c>
-      <c r="E22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="B30" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="C30">
+        <v>9.6</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>9600</v>
+      </c>
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>13</v>
       </c>
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23">
-        <v>9.6</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>9600</v>
-      </c>
-      <c r="E23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="B31" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="C31">
+        <v>1.5</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="E31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>14</v>
       </c>
-      <c r="B24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24">
-        <v>1.5</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="B32" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C32">
+        <v>428.4</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>428400</v>
+      </c>
+      <c r="E32" t="s">
         <v>47</v>
-      </c>
-      <c r="C25">
-        <v>428.4</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>428400</v>
-      </c>
-      <c r="E25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26">
-        <v>65.22</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>65220</v>
-      </c>
-      <c r="E26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27">
-        <v>0.36</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="E27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28">
-        <v>1.89</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>1890</v>
-      </c>
-      <c r="E28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29">
-        <v>13.997999999999999</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>13998</v>
-      </c>
-      <c r="E29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30">
-        <v>1.62</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>1620</v>
-      </c>
-      <c r="E30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31">
-        <v>0.28559999999999997</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>285.59999999999997</v>
-      </c>
-      <c r="E31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>86</v>
-      </c>
-      <c r="B32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32">
-        <v>12.747788</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>12747.788</v>
-      </c>
-      <c r="F32" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C33">
-        <v>8.2998000000000002E-2</v>
+        <v>65.22</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>82.998000000000005</v>
-      </c>
-      <c r="F33" t="s">
-        <v>101</v>
+        <v>65220</v>
+      </c>
+      <c r="E33" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="C34">
-        <v>0.14399999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>360</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="F34" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="C35">
-        <v>2.8500000000000001E-2</v>
+        <v>1.89</v>
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>28.5</v>
+        <v>1890</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="C36">
-        <v>1.29963887574655</v>
+        <v>13.997999999999999</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>1299.63887574655</v>
-      </c>
-      <c r="F36" t="s">
-        <v>88</v>
+        <v>13998</v>
+      </c>
+      <c r="E36" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="C37">
-        <v>1.1216623825577801</v>
+        <v>1.62</v>
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>1121.6623825577801</v>
-      </c>
-      <c r="F37" t="s">
-        <v>88</v>
+        <v>1620</v>
+      </c>
+      <c r="E37" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C38">
-        <v>1.7039999999999999E-4</v>
+        <v>0.28559999999999997</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>0.1704</v>
+        <v>285.59999999999997</v>
       </c>
       <c r="E38" t="s">
-        <v>84</v>
-      </c>
-      <c r="F38" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="C39">
-        <v>1.1216623825577801</v>
+        <v>12.747788</v>
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>1121.6623825577801</v>
+        <v>12747.788</v>
       </c>
       <c r="F39" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40">
-        <v>3.7440000000000001E-2</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="0"/>
-        <v>37.44</v>
-      </c>
-      <c r="E40" t="s">
-        <v>31</v>
+        <v>59</v>
+      </c>
+      <c r="F40" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41">
+        <v>8.2998000000000002E-2</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>82.998000000000005</v>
+      </c>
+      <c r="F41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" t="s">
         <v>89</v>
       </c>
-      <c r="B41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41">
+      <c r="C42">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="E42" t="s">
+        <v>96</v>
+      </c>
+      <c r="F42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>28.5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44">
+        <v>1.29963887574655</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>1299.63887574655</v>
+      </c>
+      <c r="F44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45">
+        <v>1.1216623825577801</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>1121.6623825577801</v>
+      </c>
+      <c r="F45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46">
+        <v>1.7039999999999999E-4</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>0.1704</v>
+      </c>
+      <c r="E46" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47">
+        <v>1.1216623825577801</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>1121.6623825577801</v>
+      </c>
+      <c r="F47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48">
+        <v>3.7440000000000001E-2</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>37.44</v>
+      </c>
+      <c r="E48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49">
         <v>0.10740000000000001</v>
       </c>
-      <c r="D41">
+      <c r="D49">
         <v>107.4</v>
       </c>
-      <c r="E41" t="s">
-        <v>59</v>
+      <c r="E49" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1" xr:uid="{0B41AFFF-3DEF-4C42-AD26-777F66020508}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{63410D94-6943-41FB-B9AB-59476D745E83}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/GSMM_parameters/EnzActivity.xlsx
+++ b/data/GSMM_parameters/EnzActivity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\EPS\LbPtEPS\data\GSMM_parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF948AD2-0D3F-43AF-AA5B-22BABFD3506C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EB7447-9CBE-4277-BF2A-5153ADC37C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="125">
   <si>
     <t>EC</t>
   </si>
@@ -297,18 +297,12 @@
     <t>DL</t>
   </si>
   <si>
-    <t>Growth</t>
-  </si>
-  <si>
     <t>MAN1PT</t>
   </si>
   <si>
     <t>2.7.7.13</t>
   </si>
   <si>
-    <t xml:space="preserve">DL, 1_2031 </t>
-  </si>
-  <si>
     <t>RPI_rev</t>
   </si>
   <si>
@@ -400,6 +394,21 @@
   </si>
   <si>
     <t>https://doi.org/10.1021/bi051638w</t>
+  </si>
+  <si>
+    <t>Thermus thermophilus</t>
+  </si>
+  <si>
+    <t>PMID: 21729734</t>
+  </si>
+  <si>
+    <t>E.coli</t>
+  </si>
+  <si>
+    <t>PMID: 21058398</t>
+  </si>
+  <si>
+    <t>biomass_LPL60</t>
   </si>
 </sst>
 </file>
@@ -450,10 +459,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -738,7 +750,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -825,7 +837,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -838,18 +850,18 @@
         <v>540</v>
       </c>
       <c r="E5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C6">
         <v>27.96</v>
@@ -859,18 +871,18 @@
         <v>27960</v>
       </c>
       <c r="E6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C7">
         <v>0.69</v>
@@ -880,18 +892,18 @@
         <v>690</v>
       </c>
       <c r="E7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C8">
         <v>1.02</v>
@@ -901,12 +913,12 @@
         <v>1020</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -948,10 +960,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C11">
         <v>9.48</v>
@@ -1020,7 +1032,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
         <v>69</v>
@@ -1041,7 +1053,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s">
         <v>69</v>
@@ -1054,7 +1066,7 @@
         <v>133.93899999999999</v>
       </c>
       <c r="F16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -1080,7 +1092,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -1093,12 +1105,12 @@
         <v>4793.0540000000001</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -1117,7 +1129,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -1130,10 +1142,10 @@
         <v>870</v>
       </c>
       <c r="E20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K20" s="1"/>
     </row>
@@ -1359,7 +1371,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -1377,7 +1389,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -1398,7 +1410,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -1416,7 +1428,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -1434,7 +1446,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -1452,7 +1464,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -1470,36 +1482,49 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B39" t="s">
         <v>59</v>
       </c>
       <c r="C39">
-        <v>12.747788</v>
+        <v>0.27</v>
       </c>
       <c r="D39">
-        <f t="shared" si="0"/>
-        <v>12747.788</v>
+        <f>C39*1000</f>
+        <v>270</v>
+      </c>
+      <c r="E39" t="s">
+        <v>120</v>
       </c>
       <c r="F39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B40" t="s">
         <v>59</v>
       </c>
+      <c r="C40">
+        <v>0.63979526551503518</v>
+      </c>
+      <c r="D40">
+        <f>C40*1000</f>
+        <v>639.79526551503523</v>
+      </c>
+      <c r="E40" t="s">
+        <v>122</v>
+      </c>
       <c r="F40" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -1514,15 +1539,15 @@
         <v>82.998000000000005</v>
       </c>
       <c r="F41" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" t="s">
         <v>88</v>
-      </c>
-      <c r="B42" t="s">
-        <v>89</v>
       </c>
       <c r="C42">
         <v>0.14399999999999999</v>
@@ -1532,13 +1557,14 @@
         <v>144</v>
       </c>
       <c r="E42" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F42" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -1559,12 +1585,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C44">
         <v>1.29963887574655</v>
@@ -1577,12 +1603,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C45">
         <v>1.1216623825577801</v>
@@ -1595,7 +1621,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>76</v>
       </c>
@@ -1616,12 +1642,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>76</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C47">
         <v>1.1216623825577801</v>
@@ -1634,7 +1660,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>77</v>
       </c>
@@ -1654,7 +1680,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="B49" t="s">
         <v>58</v>

--- a/data/GSMM_parameters/EnzActivity.xlsx
+++ b/data/GSMM_parameters/EnzActivity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\EPS\LbPtEPS\data\GSMM_parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EB7447-9CBE-4277-BF2A-5153ADC37C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAA5D57-7EFC-4486-9BD4-85EC7BA58B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -357,9 +357,6 @@
     <t>LACZ</t>
   </si>
   <si>
-    <t>GALK2</t>
-  </si>
-  <si>
     <t>GALT</t>
   </si>
   <si>
@@ -409,6 +406,9 @@
   </si>
   <si>
     <t>biomass_LPL60</t>
+  </si>
+  <si>
+    <t>GALK</t>
   </si>
 </sst>
 </file>
@@ -750,7 +750,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -850,10 +850,10 @@
         <v>540</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -861,7 +861,7 @@
         <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6">
         <v>27.96</v>
@@ -871,18 +871,18 @@
         <v>27960</v>
       </c>
       <c r="E6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7">
         <v>0.69</v>
@@ -892,18 +892,18 @@
         <v>690</v>
       </c>
       <c r="E7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" t="s">
         <v>115</v>
-      </c>
-      <c r="F7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8">
         <v>1.02</v>
@@ -913,7 +913,7 @@
         <v>1020</v>
       </c>
       <c r="E8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -1142,10 +1142,10 @@
         <v>870</v>
       </c>
       <c r="E20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" t="s">
         <v>109</v>
-      </c>
-      <c r="F20" t="s">
-        <v>110</v>
       </c>
       <c r="K20" s="1"/>
     </row>
@@ -1497,10 +1497,10 @@
         <v>270</v>
       </c>
       <c r="E39" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39" t="s">
         <v>120</v>
-      </c>
-      <c r="F39" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
@@ -1518,10 +1518,10 @@
         <v>639.79526551503523</v>
       </c>
       <c r="E40" t="s">
+        <v>121</v>
+      </c>
+      <c r="F40" t="s">
         <v>122</v>
-      </c>
-      <c r="F40" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
@@ -1680,7 +1680,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B49" t="s">
         <v>58</v>

--- a/data/GSMM_parameters/EnzActivity.xlsx
+++ b/data/GSMM_parameters/EnzActivity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\EPS\LbPtEPS\data\GSMM_parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAA5D57-7EFC-4486-9BD4-85EC7BA58B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE24E0EC-9982-499E-BB78-FEC375FDD29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/GSMM_parameters/EnzActivity.xlsx
+++ b/data/GSMM_parameters/EnzActivity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\EPS\LbPtEPS\data\GSMM_parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE24E0EC-9982-499E-BB78-FEC375FDD29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C935F04-7897-4AA5-ACA2-40161D05238C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="127">
   <si>
     <t>EC</t>
   </si>
@@ -276,27 +276,9 @@
     <t>Activity(mmol/(g E·h))</t>
   </si>
   <si>
-    <t>2.4.1.83</t>
-  </si>
-  <si>
-    <t>PMID: 2659345</t>
-  </si>
-  <si>
-    <t>2.4.1.44</t>
-  </si>
-  <si>
-    <t>Salmonella Typhimurium</t>
-  </si>
-  <si>
-    <t>PMID: 4553445</t>
-  </si>
-  <si>
     <t>PMANM</t>
   </si>
   <si>
-    <t>DL</t>
-  </si>
-  <si>
     <t>MAN1PT</t>
   </si>
   <si>
@@ -409,6 +391,30 @@
   </si>
   <si>
     <t>GALK</t>
+  </si>
+  <si>
+    <t>Estimated</t>
+  </si>
+  <si>
+    <t>ACALD</t>
+  </si>
+  <si>
+    <t>1.2.1.10</t>
+  </si>
+  <si>
+    <t>EX_for_e</t>
+  </si>
+  <si>
+    <t>ALCD2x</t>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>PMID: 32967812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Saccharomyces cerevisiae</t>
   </si>
 </sst>
 </file>
@@ -747,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="80" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -801,7 +807,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -810,7 +816,6 @@
         <v>6.36</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D48" si="0">C3*1000</f>
         <v>6360</v>
       </c>
       <c r="E3" t="s">
@@ -819,7 +824,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -828,7 +833,7 @@
         <v>6.36</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D4:D49" si="0">C4*1000</f>
         <v>6360</v>
       </c>
       <c r="E4" t="s">
@@ -837,41 +842,38 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
       </c>
       <c r="C5">
-        <v>0.54</v>
+        <v>6.36</v>
       </c>
       <c r="D5">
-        <f>C5*1000</f>
-        <v>540</v>
+        <f t="shared" si="0"/>
+        <v>6360</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="C6">
-        <v>27.96</v>
+        <v>0.54</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D8" si="1">C6*1000</f>
-        <v>27960</v>
+        <f>C6*1000</f>
+        <v>540</v>
       </c>
       <c r="E6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>112</v>
@@ -879,67 +881,67 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C7">
+        <v>27.96</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:D9" si="1">C7*1000</f>
+        <v>27960</v>
+      </c>
+      <c r="E7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8">
         <v>0.69</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
-      <c r="E7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8">
+      <c r="E8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9">
         <v>1.02</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <f t="shared" si="1"/>
         <v>1020</v>
       </c>
-      <c r="E8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9">
-        <v>0.36113999999999996</v>
-      </c>
-      <c r="D9">
-        <f>C9*1000</f>
-        <v>361.14</v>
-      </c>
       <c r="E9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -948,7 +950,7 @@
         <v>0.36113999999999996</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f>C10*1000</f>
         <v>361.14</v>
       </c>
       <c r="E10" t="s">
@@ -960,35 +962,38 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>9.48</v>
+        <v>0.36113999999999996</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>9480</v>
+        <v>361.14</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="C12">
-        <v>6.24</v>
+        <v>9.48</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>6240</v>
+        <v>9480</v>
       </c>
       <c r="E12" t="s">
         <v>30</v>
@@ -996,190 +1001,190 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13">
-        <v>31.2</v>
+        <v>6.24</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>31200</v>
+        <v>6240</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C14">
-        <v>1.92</v>
+        <v>31.2</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>1920</v>
+        <v>31200</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C15">
-        <v>133.88620527508229</v>
+        <v>1.92</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>133886.20527508229</v>
+        <v>1920</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
         <v>69</v>
       </c>
       <c r="C16">
-        <v>0.133939</v>
+        <v>133.88620527508229</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>133.93899999999999</v>
+        <v>133886.20527508229</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
       </c>
       <c r="F16" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C17">
-        <v>316.63595242084102</v>
+        <v>0.133939</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>316635.95242084103</v>
-      </c>
-      <c r="E17" t="s">
-        <v>30</v>
+        <v>133.93899999999999</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
       </c>
       <c r="C18">
-        <v>4.7930539999999997</v>
+        <v>316.63595242084102</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>4793.0540000000001</v>
+        <v>316635.95242084103</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="C19">
-        <v>12.756</v>
+        <v>4.7930539999999997</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>12756</v>
-      </c>
-      <c r="E19" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19" s="1"/>
+        <v>4793.0540000000001</v>
+      </c>
+      <c r="F19" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
       <c r="C20">
-        <v>0.87</v>
+        <v>12.756</v>
       </c>
       <c r="D20">
-        <f>C20*1000</f>
-        <v>870</v>
+        <f t="shared" si="0"/>
+        <v>12756</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F20" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C21">
-        <v>11.4</v>
+        <v>0.87</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
-        <v>11400</v>
+        <f>C21*1000</f>
+        <v>870</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="F21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22">
-        <v>28.62</v>
+        <v>11.4</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>28620</v>
+        <v>11400</v>
       </c>
       <c r="E22" t="s">
         <v>30</v>
@@ -1187,17 +1192,17 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23">
-        <v>2.4</v>
+        <v>28.62</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>2400</v>
+        <v>28620</v>
       </c>
       <c r="E23" t="s">
         <v>30</v>
@@ -1205,17 +1210,17 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24">
-        <v>28.8</v>
+        <v>2.4</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>28800</v>
+        <v>2400</v>
       </c>
       <c r="E24" t="s">
         <v>30</v>
@@ -1223,17 +1228,17 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25">
-        <v>7.44</v>
+        <v>28.8</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>7440</v>
+        <v>28800</v>
       </c>
       <c r="E25" t="s">
         <v>30</v>
@@ -1241,17 +1246,17 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26">
-        <v>15.6</v>
+        <v>7.44</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>15600</v>
+        <v>7440</v>
       </c>
       <c r="E26" t="s">
         <v>30</v>
@@ -1259,17 +1264,17 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27">
-        <v>3.3</v>
+        <v>15.6</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>3300</v>
+        <v>15600</v>
       </c>
       <c r="E27" t="s">
         <v>30</v>
@@ -1277,429 +1282,432 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C28">
-        <v>141</v>
+        <v>3.3</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>141000</v>
+        <v>3300</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C29">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>126000</v>
+        <v>141000</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C30">
-        <v>9.6</v>
+        <v>126</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>9600</v>
+        <v>126000</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C31">
-        <v>1.5</v>
+        <v>9.6</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>9600</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>30</v>
+      </c>
+      <c r="F31" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C32">
-        <v>428.4</v>
+        <v>1.5</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>428400</v>
+        <v>1500</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C33">
-        <v>65.22</v>
+        <v>428.4</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>65220</v>
+        <v>428400</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C34">
-        <v>0.36</v>
+        <v>65.22</v>
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>65220</v>
       </c>
       <c r="E34" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C35">
-        <v>1.89</v>
+        <v>0.36</v>
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>1890</v>
+        <v>360</v>
       </c>
       <c r="E35" t="s">
-        <v>52</v>
+        <v>28</v>
+      </c>
+      <c r="F35" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="C36">
-        <v>13.997999999999999</v>
+        <v>2.9159999999999999</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>13998</v>
+        <v>2916</v>
       </c>
       <c r="E36" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="C37">
-        <v>1.62</v>
+        <v>11.451600000000001</v>
       </c>
       <c r="D37">
-        <f t="shared" si="0"/>
-        <v>1620</v>
+        <f>C37*1000</f>
+        <v>11451.6</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>126</v>
+      </c>
+      <c r="F37" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C38">
-        <v>0.28559999999999997</v>
+        <v>1.89</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>285.59999999999997</v>
+        <v>1890</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C39">
-        <v>0.27</v>
+        <v>13.997999999999999</v>
       </c>
       <c r="D39">
-        <f>C39*1000</f>
-        <v>270</v>
+        <f t="shared" si="0"/>
+        <v>13998</v>
       </c>
       <c r="E39" t="s">
-        <v>119</v>
-      </c>
-      <c r="F39" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C40">
-        <v>0.63979526551503518</v>
+        <v>1.62</v>
       </c>
       <c r="D40">
-        <f>C40*1000</f>
-        <v>639.79526551503523</v>
+        <f t="shared" si="0"/>
+        <v>1620</v>
       </c>
       <c r="E40" t="s">
-        <v>121</v>
-      </c>
-      <c r="F40" t="s">
-        <v>122</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C41">
-        <v>8.2998000000000002E-2</v>
+        <v>0.28559999999999997</v>
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>82.998000000000005</v>
-      </c>
-      <c r="F41" t="s">
-        <v>97</v>
+        <v>285.59999999999997</v>
+      </c>
+      <c r="E41" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="C42">
-        <v>0.14399999999999999</v>
+        <v>0.27</v>
       </c>
       <c r="D42">
-        <f t="shared" si="0"/>
-        <v>144</v>
+        <f>C42*1000</f>
+        <v>270</v>
       </c>
       <c r="E42" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="F42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J42" s="3"/>
+        <v>114</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C43">
-        <v>2.8500000000000001E-2</v>
+        <v>0.63979526551503518</v>
       </c>
       <c r="D43">
-        <f t="shared" si="0"/>
-        <v>28.5</v>
+        <f>C43*1000</f>
+        <v>639.79526551503523</v>
       </c>
       <c r="E43" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="F43" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B44" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="C44">
-        <v>1.29963887574655</v>
+        <v>8.2998000000000002E-2</v>
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
-        <v>1299.63887574655</v>
+        <v>82.998000000000005</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C45">
-        <v>1.1216623825577801</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
-        <v>1121.6623825577801</v>
+        <v>144</v>
+      </c>
+      <c r="E45" t="s">
+        <v>88</v>
       </c>
       <c r="F45" t="s">
-        <v>86</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="J45" s="3"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46">
-        <v>1.7039999999999999E-4</v>
+        <v>90</v>
       </c>
       <c r="D46">
-        <f t="shared" si="0"/>
-        <v>0.1704</v>
-      </c>
-      <c r="E46" t="s">
-        <v>83</v>
+        <v>267.34690000000001</v>
       </c>
       <c r="F46" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47">
-        <v>1.1216623825577801</v>
+        <v>90</v>
       </c>
       <c r="D47">
-        <f t="shared" si="0"/>
-        <v>1121.6623825577801</v>
+        <v>267.34690000000001</v>
       </c>
       <c r="F47" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48">
-        <v>3.7440000000000001E-2</v>
+        <v>90</v>
       </c>
       <c r="D48">
-        <f t="shared" si="0"/>
-        <v>37.44</v>
-      </c>
-      <c r="E48" t="s">
-        <v>30</v>
+        <v>267.34690000000001</v>
+      </c>
+      <c r="F48" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="B49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49">
+        <v>3.7440000000000001E-2</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>37.44</v>
+      </c>
+      <c r="E49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" t="s">
         <v>58</v>
       </c>
-      <c r="C49">
+      <c r="C50">
         <v>0.10740000000000001</v>
       </c>
-      <c r="D49">
+      <c r="D50">
         <v>107.4</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E50" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F6" r:id="rId1" xr:uid="{0B41AFFF-3DEF-4C42-AD26-777F66020508}"/>
-    <hyperlink ref="F5" r:id="rId2" xr:uid="{63410D94-6943-41FB-B9AB-59476D745E83}"/>
+    <hyperlink ref="F7" r:id="rId1" xr:uid="{0B41AFFF-3DEF-4C42-AD26-777F66020508}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{63410D94-6943-41FB-B9AB-59476D745E83}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GSMM_parameters/EnzActivity.xlsx
+++ b/data/GSMM_parameters/EnzActivity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\EPS\LbPtEPS\data\GSMM_parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C935F04-7897-4AA5-ACA2-40161D05238C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA5103D-4E1C-4F7D-909D-914D337C9010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="128">
   <si>
     <t>EC</t>
   </si>
@@ -415,6 +415,9 @@
   </si>
   <si>
     <t xml:space="preserve">	Saccharomyces cerevisiae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Streptococcus mutans</t>
   </si>
 </sst>
 </file>
@@ -753,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="80" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -833,7 +836,7 @@
         <v>6.36</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D49" si="0">C4*1000</f>
+        <f t="shared" ref="D4:D50" si="0">C4*1000</f>
         <v>6360</v>
       </c>
       <c r="E4" t="s">
@@ -1360,167 +1363,167 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C32">
-        <v>1.5</v>
+        <v>0.72</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <f>C32*1000</f>
+        <v>720</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C33">
-        <v>428.4</v>
+        <v>1.5</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>428400</v>
+        <v>1500</v>
       </c>
       <c r="E33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C34">
-        <v>65.22</v>
+        <v>428.4</v>
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>65220</v>
+        <v>428400</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35">
-        <v>0.36</v>
+        <v>65.22</v>
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>65220</v>
       </c>
       <c r="E35" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="C36">
-        <v>2.9159999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>2916</v>
+        <v>360</v>
       </c>
       <c r="E36" t="s">
-        <v>47</v>
+        <v>28</v>
+      </c>
+      <c r="F36" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C37">
-        <v>11.451600000000001</v>
+        <v>2.9159999999999999</v>
       </c>
       <c r="D37">
-        <f>C37*1000</f>
-        <v>11451.6</v>
+        <f t="shared" si="0"/>
+        <v>2916</v>
       </c>
       <c r="E37" t="s">
-        <v>126</v>
-      </c>
-      <c r="F37" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="C38">
-        <v>1.89</v>
+        <v>11.451600000000001</v>
       </c>
       <c r="D38">
-        <f t="shared" si="0"/>
-        <v>1890</v>
+        <f>C38*1000</f>
+        <v>11451.6</v>
       </c>
       <c r="E38" t="s">
-        <v>52</v>
+        <v>126</v>
+      </c>
+      <c r="F38" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C39">
-        <v>13.997999999999999</v>
+        <v>1.89</v>
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>13998</v>
+        <v>1890</v>
       </c>
       <c r="E39" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
         <v>55</v>
       </c>
       <c r="C40">
-        <v>1.62</v>
+        <v>13.997999999999999</v>
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>1620</v>
+        <v>13998</v>
       </c>
       <c r="E40" t="s">
         <v>30</v>
@@ -1528,17 +1531,17 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C41">
-        <v>0.28559999999999997</v>
+        <v>1.62</v>
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>285.59999999999997</v>
+        <v>1620</v>
       </c>
       <c r="E41" t="s">
         <v>30</v>
@@ -1546,103 +1549,107 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C42">
-        <v>0.27</v>
+        <v>0.28559999999999997</v>
       </c>
       <c r="D42">
-        <f>C42*1000</f>
-        <v>270</v>
+        <f t="shared" si="0"/>
+        <v>285.59999999999997</v>
       </c>
       <c r="E42" t="s">
-        <v>113</v>
-      </c>
-      <c r="F42" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B43" t="s">
         <v>59</v>
       </c>
       <c r="C43">
-        <v>0.63979526551503518</v>
+        <v>0.27</v>
       </c>
       <c r="D43">
         <f>C43*1000</f>
-        <v>639.79526551503523</v>
+        <v>270</v>
       </c>
       <c r="E43" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F43" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C44">
-        <v>8.2998000000000002E-2</v>
+        <v>0.63979526551503518</v>
       </c>
       <c r="D44">
-        <f t="shared" si="0"/>
-        <v>82.998000000000005</v>
+        <f>C44*1000</f>
+        <v>639.79526551503523</v>
+      </c>
+      <c r="E44" t="s">
+        <v>115</v>
       </c>
       <c r="F44" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="C45">
-        <v>0.14399999999999999</v>
+        <v>8.2998000000000002E-2</v>
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
-        <v>144</v>
-      </c>
-      <c r="E45" t="s">
-        <v>88</v>
+        <v>82.998000000000005</v>
       </c>
       <c r="F45" t="s">
-        <v>89</v>
-      </c>
-      <c r="J45" s="3"/>
+        <v>91</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>82</v>
+      </c>
+      <c r="C46">
+        <v>0.14399999999999999</v>
       </c>
       <c r="D46">
-        <v>267.34690000000001</v>
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="E46" t="s">
+        <v>88</v>
       </c>
       <c r="F46" t="s">
-        <v>119</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="J46" s="3"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B47" t="s">
         <v>90</v>
@@ -1656,7 +1663,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B48" t="s">
         <v>90</v>
@@ -1668,38 +1675,52 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49">
+        <v>267.34690000000001</v>
+      </c>
+      <c r="F49" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>77</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>78</v>
       </c>
-      <c r="C49">
+      <c r="C50">
         <v>3.7440000000000001E-2</v>
       </c>
-      <c r="D49">
+      <c r="D50">
         <f t="shared" si="0"/>
         <v>37.44</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>117</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>58</v>
       </c>
-      <c r="C50">
+      <c r="C51">
         <v>0.10740000000000001</v>
       </c>
-      <c r="D50">
+      <c r="D51">
         <v>107.4</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E51" t="s">
         <v>58</v>
       </c>
     </row>

--- a/data/GSMM_parameters/EnzActivity.xlsx
+++ b/data/GSMM_parameters/EnzActivity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\EPS\LbPtEPS\data\GSMM_parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA5103D-4E1C-4F7D-909D-914D337C9010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4316B4-18AC-4789-A3C2-3F4F9C5CA34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1655,7 +1655,7 @@
         <v>90</v>
       </c>
       <c r="D47">
-        <v>267.34690000000001</v>
+        <v>250.61</v>
       </c>
       <c r="F47" t="s">
         <v>119</v>
@@ -1669,7 +1669,7 @@
         <v>90</v>
       </c>
       <c r="D48">
-        <v>267.34690000000001</v>
+        <v>250.61</v>
       </c>
       <c r="F48" t="s">
         <v>119</v>
@@ -1683,7 +1683,7 @@
         <v>90</v>
       </c>
       <c r="D49">
-        <v>267.34690000000001</v>
+        <v>250.61</v>
       </c>
       <c r="F49" t="s">
         <v>119</v>
